--- a/data_analytics/try_cnn/derivative_in_convolution 1.xlsx
+++ b/data_analytics/try_cnn/derivative_in_convolution 1.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="23190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="23196" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Derivative" sheetId="1" r:id="rId1"/>
     <sheet name="axis in numpy" sheetId="2" r:id="rId2"/>
+    <sheet name="axis in tensorflow" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="133">
   <si>
     <t>conv</t>
   </si>
@@ -412,6 +413,21 @@
   </si>
   <si>
     <t>dL/dP_điểm_1_mặt_1</t>
+  </si>
+  <si>
+    <t>axis=0</t>
+  </si>
+  <si>
+    <t>axis = 0</t>
+  </si>
+  <si>
+    <t>axis = 1</t>
+  </si>
+  <si>
+    <t>matrix 1</t>
+  </si>
+  <si>
+    <t>matrix 2</t>
   </si>
 </sst>
 </file>
@@ -427,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +495,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -703,6 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6077,6 +6100,105 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577788" y="896471"/>
+          <a:ext cx="0" cy="1317811"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2115671" y="546847"/>
+          <a:ext cx="1075764" cy="8965"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6342,16 +6464,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AP178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AB67" sqref="AB67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="34.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="7.7109375" style="1"/>
+    <col min="1" max="16384" width="7.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6398,7 +6520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J4" s="3" t="s">
         <v>3</v>
       </c>
@@ -6430,7 +6552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -6447,7 +6569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
@@ -6511,7 +6633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
@@ -6555,7 +6677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -6572,7 +6694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="3:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -6628,7 +6750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="3:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X10" s="2" t="s">
         <v>26</v>
       </c>
@@ -6654,7 +6776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
@@ -6716,7 +6838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="3:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
@@ -6763,7 +6885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="3:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
         <v>32</v>
       </c>
@@ -6780,7 +6902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="3:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -6791,7 +6913,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -6802,7 +6924,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="4:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J17" s="12" t="s">
         <v>47</v>
       </c>
@@ -6855,7 +6977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="4:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X18" s="2" t="s">
         <v>13</v>
       </c>
@@ -6881,7 +7003,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="4:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
@@ -6889,7 +7011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="4:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V20" s="1" t="s">
         <v>0</v>
       </c>
@@ -6937,7 +7059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="4:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="2" t="s">
@@ -6965,7 +7087,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="4:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V23" s="1" t="s">
         <v>0</v>
       </c>
@@ -7012,7 +7134,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="4:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X24" s="2" t="s">
         <v>26</v>
       </c>
@@ -7038,7 +7160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="4:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="V26" s="1" t="s">
         <v>0</v>
       </c>
@@ -7085,7 +7207,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="4:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="X27" s="2" t="s">
         <v>27</v>
       </c>
@@ -7111,7 +7233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="4:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
         <v>51</v>
       </c>
@@ -7152,7 +7274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="4:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="3" t="s">
         <v>3</v>
       </c>
@@ -7196,7 +7318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="4:42" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:42" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="3" t="s">
         <v>15</v>
       </c>
@@ -7228,7 +7350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="4:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="1" t="s">
         <v>51</v>
       </c>
@@ -7269,7 +7391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="4:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="6" t="s">
         <v>8</v>
       </c>
@@ -7313,7 +7435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="4:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="6" t="s">
         <v>19</v>
       </c>
@@ -7345,7 +7467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="4:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="1" t="s">
         <v>51</v>
       </c>
@@ -7386,7 +7508,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="4:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="11" t="s">
         <v>36</v>
       </c>
@@ -7430,7 +7552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="4:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="11" t="s">
         <v>41</v>
       </c>
@@ -7462,7 +7584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="4:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="1" t="s">
         <v>51</v>
       </c>
@@ -7503,7 +7625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="4:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="12" t="s">
         <v>45</v>
       </c>
@@ -7547,7 +7669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="4:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="12" t="s">
         <v>47</v>
       </c>
@@ -7579,17 +7701,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="4:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L46" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="4:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AG47" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="4:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="1" t="s">
         <v>51</v>
       </c>
@@ -7669,7 +7791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="3" t="s">
         <v>3</v>
       </c>
@@ -7728,7 +7850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="3" t="s">
         <v>15</v>
       </c>
@@ -7753,7 +7875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
@@ -7769,7 +7891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52" s="1" t="s">
         <v>51</v>
       </c>
@@ -7850,7 +7972,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="6" t="s">
         <v>8</v>
       </c>
@@ -7910,7 +8032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="6" t="s">
         <v>19</v>
       </c>
@@ -7936,7 +8058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
       <c r="N55" s="14"/>
@@ -7951,7 +8073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56" s="1" t="s">
         <v>51</v>
       </c>
@@ -8032,7 +8154,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="11" t="s">
         <v>36</v>
       </c>
@@ -8092,7 +8214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="11" t="s">
         <v>41</v>
       </c>
@@ -8118,7 +8240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>43</v>
       </c>
@@ -8136,7 +8258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60" s="1" t="s">
         <v>51</v>
       </c>
@@ -8217,7 +8339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D61" s="12" t="s">
         <v>45</v>
       </c>
@@ -8277,7 +8399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D62" s="12" t="s">
         <v>47</v>
       </c>
@@ -8302,13 +8424,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="O63" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D65" s="16"/>
       <c r="E65" s="17"/>
       <c r="F65" s="17"/>
@@ -8334,7 +8456,7 @@
       <c r="X65" s="17"/>
       <c r="Y65" s="18"/>
     </row>
-    <row r="66" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D66" s="19" t="s">
         <v>51</v>
       </c>
@@ -8368,7 +8490,7 @@
       <c r="X66" s="8"/>
       <c r="Y66" s="21"/>
     </row>
-    <row r="67" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D67" s="19" t="s">
         <v>57</v>
       </c>
@@ -8394,7 +8516,7 @@
       <c r="X67" s="8"/>
       <c r="Y67" s="21"/>
     </row>
-    <row r="68" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D68" s="19"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -8420,7 +8542,7 @@
       <c r="X68" s="8"/>
       <c r="Y68" s="21"/>
     </row>
-    <row r="69" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D69" s="19" t="s">
         <v>51</v>
       </c>
@@ -8454,7 +8576,7 @@
       <c r="X69" s="8"/>
       <c r="Y69" s="21"/>
     </row>
-    <row r="70" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D70" s="19" t="s">
         <v>59</v>
       </c>
@@ -8480,7 +8602,7 @@
       <c r="X70" s="8"/>
       <c r="Y70" s="21"/>
     </row>
-    <row r="71" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71" s="19"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
@@ -8506,7 +8628,7 @@
       <c r="X71" s="8"/>
       <c r="Y71" s="21"/>
     </row>
-    <row r="72" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="19" t="s">
         <v>51</v>
       </c>
@@ -8540,7 +8662,7 @@
       <c r="X72" s="8"/>
       <c r="Y72" s="21"/>
     </row>
-    <row r="73" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73" s="19" t="s">
         <v>61</v>
       </c>
@@ -8566,7 +8688,7 @@
       <c r="X73" s="8"/>
       <c r="Y73" s="21"/>
     </row>
-    <row r="74" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74" s="19"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -8592,7 +8714,7 @@
       <c r="X74" s="8"/>
       <c r="Y74" s="21"/>
     </row>
-    <row r="75" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75" s="19" t="s">
         <v>51</v>
       </c>
@@ -8626,7 +8748,7 @@
       <c r="X75" s="8"/>
       <c r="Y75" s="21"/>
     </row>
-    <row r="76" spans="4:25" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:25" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D76" s="22" t="s">
         <v>62</v>
       </c>
@@ -8652,8 +8774,8 @@
       <c r="X76" s="23"/>
       <c r="Y76" s="24"/>
     </row>
-    <row r="78" spans="4:25" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:25" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D79" s="16"/>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
@@ -8677,7 +8799,7 @@
       <c r="X79" s="17"/>
       <c r="Y79" s="18"/>
     </row>
-    <row r="80" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D80" s="19" t="s">
         <v>63</v>
       </c>
@@ -8727,7 +8849,7 @@
       <c r="X80" s="8"/>
       <c r="Y80" s="21"/>
     </row>
-    <row r="81" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
         <v>64</v>
       </c>
@@ -8769,7 +8891,7 @@
       <c r="X81" s="8"/>
       <c r="Y81" s="21"/>
     </row>
-    <row r="82" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D82" s="19"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
@@ -8793,7 +8915,7 @@
       <c r="X82" s="8"/>
       <c r="Y82" s="21"/>
     </row>
-    <row r="83" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
         <v>63</v>
       </c>
@@ -8843,7 +8965,7 @@
       <c r="X83" s="8"/>
       <c r="Y83" s="21"/>
     </row>
-    <row r="84" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D84" s="19" t="s">
         <v>65</v>
       </c>
@@ -8885,7 +9007,7 @@
       <c r="X84" s="8"/>
       <c r="Y84" s="21"/>
     </row>
-    <row r="85" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D85" s="19"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
@@ -8909,7 +9031,7 @@
       <c r="X85" s="8"/>
       <c r="Y85" s="21"/>
     </row>
-    <row r="86" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D86" s="19"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -8935,7 +9057,7 @@
       <c r="X86" s="8"/>
       <c r="Y86" s="21"/>
     </row>
-    <row r="87" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D87" s="19"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
@@ -8959,7 +9081,7 @@
       <c r="X87" s="8"/>
       <c r="Y87" s="21"/>
     </row>
-    <row r="88" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D88" s="19" t="s">
         <v>63</v>
       </c>
@@ -9001,7 +9123,7 @@
       <c r="X88" s="8"/>
       <c r="Y88" s="21"/>
     </row>
-    <row r="89" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D89" s="19" t="s">
         <v>64</v>
       </c>
@@ -9035,7 +9157,7 @@
       <c r="X89" s="8"/>
       <c r="Y89" s="21"/>
     </row>
-    <row r="90" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D90" s="19"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -9059,7 +9181,7 @@
       <c r="X90" s="8"/>
       <c r="Y90" s="21"/>
     </row>
-    <row r="91" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D91" s="19" t="s">
         <v>63</v>
       </c>
@@ -9101,7 +9223,7 @@
       <c r="X91" s="8"/>
       <c r="Y91" s="21"/>
     </row>
-    <row r="92" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
         <v>65</v>
       </c>
@@ -9135,7 +9257,7 @@
       <c r="X92" s="8"/>
       <c r="Y92" s="21"/>
     </row>
-    <row r="93" spans="4:25" ht="34.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:25" ht="34.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D93" s="22"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
@@ -9159,7 +9281,7 @@
       <c r="X93" s="23"/>
       <c r="Y93" s="24"/>
     </row>
-    <row r="96" spans="4:25" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:25" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D96" s="1" t="s">
         <v>51</v>
       </c>
@@ -9170,7 +9292,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="97" spans="4:36" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:36" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D97" s="2" t="s">
         <v>1</v>
       </c>
@@ -9213,7 +9335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="4:36" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:36" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D98" s="2" t="s">
         <v>13</v>
       </c>
@@ -9252,7 +9374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="4:36" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:36" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D99" s="2" t="s">
         <v>26</v>
       </c>
@@ -9279,7 +9401,7 @@
       </c>
       <c r="AA99" s="26"/>
     </row>
-    <row r="100" spans="4:36" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:36" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L100" s="26"/>
       <c r="M100" s="26"/>
       <c r="N100" s="26"/>
@@ -9289,7 +9411,7 @@
       <c r="Z100" s="26"/>
       <c r="AA100" s="26"/>
     </row>
-    <row r="101" spans="4:36" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:36" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q101" s="14"/>
       <c r="R101" s="14"/>
       <c r="S101" s="14"/>
@@ -9298,7 +9420,7 @@
       <c r="V101" s="14"/>
       <c r="W101" s="14"/>
     </row>
-    <row r="102" spans="4:36" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:36" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q102" s="14"/>
       <c r="R102" s="14"/>
       <c r="S102" s="14"/>
@@ -9313,7 +9435,7 @@
       <c r="AG102" s="14"/>
       <c r="AH102" s="14"/>
     </row>
-    <row r="103" spans="4:36" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:36" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D103" s="1" t="s">
         <v>51</v>
       </c>
@@ -9366,7 +9488,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="4:36" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:36" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D104" s="1" t="s">
         <v>70</v>
       </c>
@@ -9383,7 +9505,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="4:36" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:36" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D106" s="1" t="s">
         <v>51</v>
       </c>
@@ -9436,7 +9558,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="4:36" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:36" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D107" s="1" t="s">
         <v>79</v>
       </c>
@@ -9453,7 +9575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="4:36" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:36" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E110" s="1" t="s">
         <v>126</v>
       </c>
@@ -9464,7 +9586,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="114" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L114" s="1" t="s">
         <v>125</v>
       </c>
@@ -9475,7 +9597,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G115" s="1" t="s">
         <v>82</v>
       </c>
@@ -9483,17 +9605,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L116" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L117" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L120" s="1" t="s">
         <v>125</v>
       </c>
@@ -9504,7 +9626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G121" s="1" t="s">
         <v>83</v>
       </c>
@@ -9512,17 +9634,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L122" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L123" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L126" s="1" t="s">
         <v>125</v>
       </c>
@@ -9533,7 +9655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G127" s="1" t="s">
         <v>84</v>
       </c>
@@ -9541,17 +9663,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L128" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="129" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L129" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L132" s="1" t="s">
         <v>125</v>
       </c>
@@ -9562,7 +9684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="133" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G133" s="1" t="s">
         <v>86</v>
       </c>
@@ -9570,22 +9692,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L134" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L135" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="138" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L138" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="139" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G139" s="1" t="s">
         <v>87</v>
       </c>
@@ -9593,17 +9715,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L140" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="141" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L141" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="147" spans="5:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E147" s="1" t="s">
         <v>127</v>
       </c>
@@ -9614,7 +9736,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="151" spans="5:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L151" s="1" t="s">
         <v>125</v>
       </c>
@@ -9622,7 +9744,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="152" spans="5:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G152" s="1" t="s">
         <v>82</v>
       </c>
@@ -9633,17 +9755,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="153" spans="5:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L153" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="5:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L154" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="5:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L157" s="1" t="s">
         <v>125</v>
       </c>
@@ -9651,7 +9773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" spans="5:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G158" s="1" t="s">
         <v>83</v>
       </c>
@@ -9662,17 +9784,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="159" spans="5:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L159" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="160" spans="5:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L160" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L163" s="1" t="s">
         <v>125</v>
       </c>
@@ -9680,7 +9802,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="164" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G164" s="1" t="s">
         <v>84</v>
       </c>
@@ -9691,17 +9813,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="165" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L165" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="166" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L166" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="169" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L169" s="1" t="s">
         <v>125</v>
       </c>
@@ -9709,7 +9831,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="170" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G170" s="1" t="s">
         <v>86</v>
       </c>
@@ -9720,22 +9842,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="171" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L171" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="172" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L172" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="175" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L175" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="176" spans="7:23" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="7:23" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G176" s="1" t="s">
         <v>87</v>
       </c>
@@ -9743,12 +9865,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="12:12" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="12:12" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L177" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="178" spans="12:12" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="12:12" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L178" s="1" t="s">
         <v>124</v>
       </c>
@@ -9763,16 +9885,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="34.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="7.7109375" style="27"/>
+    <col min="1" max="16384" width="7.6640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>88</v>
       </c>
@@ -9787,19 +9909,19 @@
       <c r="J2" s="34"/>
       <c r="K2" s="34"/>
     </row>
-    <row r="3" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N3" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G5" s="28" t="s">
         <v>90</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>91</v>
       </c>
@@ -9810,12 +9932,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
     </row>
-    <row r="9" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G9" s="28" t="s">
         <v>93</v>
       </c>
@@ -9823,7 +9945,7 @@
       <c r="I9" s="28"/>
       <c r="N9" s="29"/>
     </row>
-    <row r="10" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>94</v>
       </c>
@@ -9831,12 +9953,12 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
     </row>
-    <row r="13" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G13" s="28" t="s">
         <v>95</v>
       </c>
@@ -9844,7 +9966,7 @@
       <c r="I13" s="28"/>
       <c r="R13" s="29"/>
     </row>
-    <row r="14" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>96</v>
       </c>
@@ -9855,7 +9977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
@@ -9863,14 +9985,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G17" s="28" t="s">
         <v>98</v>
       </c>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>99</v>
       </c>
@@ -9878,19 +10000,19 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
     </row>
-    <row r="21" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G21" s="28" t="s">
         <v>100</v>
       </c>
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
     </row>
-    <row r="22" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
         <v>101</v>
       </c>
@@ -9898,12 +10020,12 @@
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
     </row>
-    <row r="24" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
@@ -9916,7 +10038,7 @@
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
     </row>
-    <row r="25" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
@@ -9933,7 +10055,7 @@
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
     </row>
-    <row r="26" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>102</v>
       </c>
@@ -9953,7 +10075,7 @@
       <c r="U26" s="29"/>
       <c r="V26" s="29"/>
     </row>
-    <row r="27" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
@@ -9970,7 +10092,7 @@
       <c r="U27" s="29"/>
       <c r="V27" s="29"/>
     </row>
-    <row r="28" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G28" s="28" t="s">
         <v>103</v>
       </c>
@@ -9989,7 +10111,7 @@
       <c r="U28" s="29"/>
       <c r="V28" s="29"/>
     </row>
-    <row r="29" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -10008,7 +10130,7 @@
       <c r="U29" s="29"/>
       <c r="V29" s="29"/>
     </row>
-    <row r="30" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
@@ -10024,7 +10146,7 @@
       <c r="U30" s="29"/>
       <c r="V30" s="29"/>
     </row>
-    <row r="31" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L31" s="29"/>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
@@ -10037,7 +10159,7 @@
       <c r="U31" s="29"/>
       <c r="V31" s="29"/>
     </row>
-    <row r="32" spans="1:22" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E32" s="35" t="s">
         <v>104</v>
       </c>
@@ -10059,7 +10181,7 @@
       <c r="U32" s="29"/>
       <c r="V32" s="29"/>
     </row>
-    <row r="33" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E33" s="36" t="s">
         <v>105</v>
       </c>
@@ -10070,42 +10192,42 @@
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
     </row>
-    <row r="35" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G37" s="28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G39" s="28"/>
     </row>
-    <row r="41" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G41" s="28"/>
       <c r="K41" s="30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G43" s="28"/>
     </row>
-    <row r="45" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G45" s="28"/>
     </row>
-    <row r="47" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E47" s="31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>110</v>
       </c>
@@ -10113,14 +10235,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G52" s="28" t="s">
         <v>90</v>
       </c>
       <c r="K52" s="28"/>
       <c r="O52" s="28"/>
     </row>
-    <row r="53" spans="1:30" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F53" s="28" t="s">
         <v>111</v>
       </c>
@@ -10132,7 +10254,7 @@
       <c r="N53" s="28"/>
       <c r="O53" s="28"/>
     </row>
-    <row r="54" spans="1:30" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E54" s="28" t="s">
         <v>112</v>
       </c>
@@ -10149,7 +10271,7 @@
       <c r="N54" s="28"/>
       <c r="O54" s="28"/>
     </row>
-    <row r="55" spans="1:30" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="27" t="s">
         <v>115</v>
       </c>
@@ -10175,7 +10297,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E56" s="28" t="s">
         <v>114</v>
       </c>
@@ -10192,7 +10314,7 @@
       <c r="N56" s="28"/>
       <c r="O56" s="28"/>
     </row>
-    <row r="57" spans="1:30" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E57" s="28" t="s">
         <v>117</v>
       </c>
@@ -10204,14 +10326,14 @@
       <c r="M57" s="28"/>
       <c r="N57" s="28"/>
     </row>
-    <row r="58" spans="1:30" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E58" s="28" t="s">
         <v>118</v>
       </c>
       <c r="I58" s="28"/>
       <c r="M58" s="28"/>
     </row>
-    <row r="62" spans="1:30" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="27" t="s">
         <v>119</v>
       </c>
@@ -10224,7 +10346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E64" s="31" t="s">
         <v>121</v>
       </c>
@@ -10238,4 +10360,205 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:Q16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="37">
+        <v>3</v>
+      </c>
+      <c r="F4" s="37">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="37">
+        <v>5</v>
+      </c>
+      <c r="F5" s="37">
+        <v>4</v>
+      </c>
+      <c r="J5" s="37">
+        <v>1</v>
+      </c>
+      <c r="M5" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="37">
+        <v>6</v>
+      </c>
+      <c r="J6" s="28">
+        <v>7</v>
+      </c>
+      <c r="K6" s="37">
+        <v>3</v>
+      </c>
+      <c r="M6" s="28">
+        <v>8</v>
+      </c>
+      <c r="N6" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" s="28">
+        <v>9</v>
+      </c>
+      <c r="L7" s="37">
+        <v>5</v>
+      </c>
+      <c r="N7" s="28">
+        <v>10</v>
+      </c>
+      <c r="O7" s="37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="28">
+        <v>7</v>
+      </c>
+      <c r="L8" s="28">
+        <v>11</v>
+      </c>
+      <c r="O8" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="28">
+        <v>9</v>
+      </c>
+      <c r="F9" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="28">
+        <v>11</v>
+      </c>
+      <c r="F10" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="28">
+        <v>12</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="37">
+        <v>1</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="37">
+        <v>2</v>
+      </c>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="37">
+        <v>3</v>
+      </c>
+      <c r="K14" s="28">
+        <v>7</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="37">
+        <v>4</v>
+      </c>
+      <c r="N14" s="28">
+        <v>8</v>
+      </c>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+    </row>
+    <row r="15" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="37">
+        <v>5</v>
+      </c>
+      <c r="K15" s="28">
+        <v>9</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="37">
+        <v>6</v>
+      </c>
+      <c r="N15" s="28">
+        <v>10</v>
+      </c>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+    </row>
+    <row r="16" spans="3:17" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="28">
+        <v>11</v>
+      </c>
+      <c r="N16" s="28">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>